--- a/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/გურია/ლანჩხუთი.xlsx
+++ b/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/გურია/ლანჩხუთი.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმ. მუნიციპ\სასტუმროების რაოდენობა და ფართობი\სასტუმროების რაოდენობა &amp; ფართობი\გურია\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები_მუნიციპალიტეტები\2 სასტუმროების რაოდენობა &amp; ფართობი\გურია\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF138723-6ADF-4BB8-B3C6-9F8C8662E99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3397EED9-9ED2-430B-B097-79DBCF0C983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21990" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ლანჩხუთი" sheetId="2" r:id="rId1"/>
@@ -25,26 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>რაოდენობა</t>
   </si>
   <si>
-    <t>სასტუმროებისა და სასტუმროს ტიპის დაწესებულებების რაოდენობა და მთლიანი ფართობი ადგილობრივი ერთეულების ჩათვლით ლანჩხუთის მუნიციპალიტეტში</t>
+    <t>*საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები</t>
   </si>
   <si>
-    <t>ფართობი, კვ.მ.</t>
+    <t>(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+  </si>
+  <si>
+    <t>სასტუმროებისა და სასტუმროს ტიპის დაწესებულებების* რაოდენობა და მთლიანი ფართობი ლანჩხუთის მუნიციპალიტეტში</t>
+  </si>
+  <si>
+    <t>ფართობი, ათასი კვ.მ.</t>
+  </si>
+  <si>
+    <t>(დეკლარირებული მონაცემები)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,10 +71,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,28 +96,21 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -153,42 +169,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -472,174 +503,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="19" width="10.7109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
+    <col min="2" max="15" width="7.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2012</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2014</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2016</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2017</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2018</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2019</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2020</v>
+      </c>
+      <c r="M3" s="9">
+        <v>2021</v>
+      </c>
+      <c r="N3" s="9">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12">
+        <v>6</v>
+      </c>
+      <c r="G4" s="12">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12">
+        <v>7</v>
+      </c>
+      <c r="I4" s="12">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12">
+        <v>5</v>
+      </c>
+      <c r="L4" s="12">
+        <v>5</v>
+      </c>
+      <c r="M4" s="12">
+        <v>8</v>
+      </c>
+      <c r="N4" s="12">
+        <v>11</v>
+      </c>
+      <c r="O4" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3.528</v>
+      </c>
+      <c r="C5" s="13">
+        <v>3.5489999999999999</v>
+      </c>
+      <c r="D5" s="13">
+        <v>6.3550000000000004</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5.6109999999999998</v>
+      </c>
+      <c r="F5" s="13">
+        <v>6.1710000000000003</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6.5209999999999999</v>
+      </c>
+      <c r="H5" s="13">
+        <v>6.327</v>
+      </c>
+      <c r="I5" s="13">
+        <v>5.4770000000000003</v>
+      </c>
+      <c r="J5" s="13">
+        <v>3.9529999999999998</v>
+      </c>
+      <c r="K5" s="13">
+        <v>3.9529999999999998</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3.9350000000000001</v>
+      </c>
+      <c r="M5" s="13">
+        <v>3.6459999999999999</v>
+      </c>
+      <c r="N5" s="13">
+        <v>4.0579999999999998</v>
+      </c>
+      <c r="O5" s="13">
+        <v>11.361000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8">
-        <v>2010</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2012</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2013</v>
-      </c>
-      <c r="F2" s="8">
-        <v>2014</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2015</v>
-      </c>
-      <c r="H2" s="8">
-        <v>2016</v>
-      </c>
-      <c r="I2" s="8">
-        <v>2017</v>
-      </c>
-      <c r="J2" s="8">
-        <v>2018</v>
-      </c>
-      <c r="K2" s="8">
-        <v>2019</v>
-      </c>
-      <c r="L2" s="8">
-        <v>2020</v>
-      </c>
-      <c r="M2" s="8">
-        <v>2021</v>
-      </c>
-      <c r="N2" s="8">
-        <v>2022</v>
-      </c>
-      <c r="O2" s="8">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2">
-        <v>8</v>
-      </c>
-      <c r="N3" s="2">
-        <v>11</v>
-      </c>
-      <c r="O3" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>3528</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3549</v>
-      </c>
-      <c r="D4" s="11">
-        <v>6355</v>
-      </c>
-      <c r="E4" s="11">
-        <v>5611</v>
-      </c>
-      <c r="F4" s="11">
-        <v>6171</v>
-      </c>
-      <c r="G4" s="11">
-        <v>6521</v>
-      </c>
-      <c r="H4" s="11">
-        <v>6327</v>
-      </c>
-      <c r="I4" s="11">
-        <v>5477</v>
-      </c>
-      <c r="J4" s="11">
-        <v>3953</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3953</v>
-      </c>
-      <c r="L4" s="11">
-        <v>3935</v>
-      </c>
-      <c r="M4" s="11">
-        <v>3646</v>
-      </c>
-      <c r="N4" s="11">
-        <v>4058.0000000000009</v>
-      </c>
-      <c r="O4" s="11">
-        <v>11361.000000000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
